--- a/Scraping + Scheduling/courses.xlsx
+++ b/Scraping + Scheduling/courses.xlsx
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -4828,11 +4828,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -19455,12 +19455,12 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Staff</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>or: Staff</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M307" t="n">
@@ -19517,12 +19517,12 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Samreen Malik</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>or: Samreen Malik</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M308" t="n">
@@ -19579,12 +19579,12 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Samreen Malik</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>or: Samreen Malik</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M309" t="n">
@@ -19641,12 +19641,12 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Lucas Maria Siga</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>or: Lucas Maria Siga</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M310" t="n">
@@ -19703,12 +19703,12 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Lucas Maria Siga</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>or: Lucas Maria Siga</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M311" t="n">
@@ -26842,7 +26842,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -29256,11 +29256,11 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -35389,16 +35389,16 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Ghazi Faisal Al-Mulaifi</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>or: Ghazi Faisal Al-Mulaifi</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -35451,12 +35451,12 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Clare Lesser</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>or: Clare Lesser</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M565" t="n">
@@ -36195,12 +36195,12 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>4/2022 - 05/17/2022</t>
+          <t>Ioannis Potamousis</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>or: Ioannis Potamousis</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M577" t="n">
@@ -41594,11 +41594,11 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         </is>
       </c>
       <c r="M809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -52444,11 +52444,11 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
